--- a/StatsAssignment#3/2011Movies.xlsx
+++ b/StatsAssignment#3/2011Movies.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Docs\SMC\Teaching\Spring 2019\BUSAD 40\Assignment\Assignment 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trevorcardoza/Documents/GitHub/Statistics/StatsAssignment#3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6B5A4A-00EC-47FD-B4FC-A09A9781C47D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977842D3-7964-E74B-B910-9B6B8B180A3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="0" windowWidth="18920" windowHeight="18220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="114">
   <si>
     <t>Motion Picture</t>
   </si>
@@ -335,6 +345,33 @@
   </si>
   <si>
     <t>Total Gross Sales ($millions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opening Gross Sales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Gross Sales </t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Std Dev</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>1st quart</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>3rd quart</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
 </sst>
 </file>
@@ -390,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -408,6 +445,7 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,20 +784,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -775,8 +819,20 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -792,8 +848,27 @@
       <c r="E2" s="6">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="7">
+        <f>AVERAGE(B2:B101)</f>
+        <v>27.514899999999979</v>
+      </c>
+      <c r="I2" s="7">
+        <f>AVERAGE(C2:C101)</f>
+        <v>90.466399999999993</v>
+      </c>
+      <c r="J2" s="7">
+        <f t="shared" ref="I2:K2" si="0">AVERAGE(D2:D101)</f>
+        <v>3114.35</v>
+      </c>
+      <c r="K2" s="7">
+        <f t="shared" si="0"/>
+        <v>14.58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -809,8 +884,27 @@
       <c r="E3" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3">
+        <f>_xlfn.STDEV.S(B2:B101)</f>
+        <v>26.515595582238173</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:K3" si="1">_xlfn.STDEV.S(C2:C101)</f>
+        <v>68.124661585963253</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>610.79025438237375</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>5.0496124463750549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -826,8 +920,27 @@
       <c r="E4" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="7">
+        <f>_xlfn.QUARTILE.INC(B2:B101,0)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" ref="I4:K4" si="2">_xlfn.QUARTILE.INC(C2:C101,0)</f>
+        <v>29.14</v>
+      </c>
+      <c r="J4" s="7">
+        <f t="shared" si="2"/>
+        <v>1038</v>
+      </c>
+      <c r="K4" s="7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -843,8 +956,27 @@
       <c r="E5" s="6">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5">
+        <f>_xlfn.QUARTILE.INC(B2:B101,1)</f>
+        <v>13.0025</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:K5" si="3">_xlfn.QUARTILE.INC(C2:C101,1)</f>
+        <v>39.957499999999996</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>2853.75</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -860,8 +992,27 @@
       <c r="E6" s="6">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6">
+        <f>_xlfn.QUARTILE.INC(B2:B101,2)</f>
+        <v>19.079999999999998</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:K6" si="4">_xlfn.QUARTILE.INC(C2:C101,2)</f>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>3102.5</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -877,8 +1028,27 @@
       <c r="E7" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7">
+        <f>_xlfn.QUARTILE.INC(B2:B101,3)</f>
+        <v>31.752500000000001</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ref="I7:K7" si="5">_xlfn.QUARTILE.INC(C2:C101,3)</f>
+        <v>105.045</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>3549.75</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -894,8 +1064,27 @@
       <c r="E8" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8">
+        <f>_xlfn.QUARTILE.INC(B2:B101,4)</f>
+        <v>169.19</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:K8" si="6">_xlfn.QUARTILE.INC(C2:C101,4)</f>
+        <v>381.01</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="6"/>
+        <v>4375</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -912,7 +1101,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -929,7 +1118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -946,7 +1135,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -963,7 +1152,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
@@ -980,7 +1169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -997,7 +1186,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -1014,7 +1203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -1031,7 +1220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
@@ -1048,7 +1237,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
@@ -1065,7 +1254,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
@@ -1082,7 +1271,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
@@ -1099,7 +1288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
@@ -1116,7 +1305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
@@ -1133,7 +1322,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>25</v>
       </c>
@@ -1150,7 +1339,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>26</v>
       </c>
@@ -1167,7 +1356,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>27</v>
       </c>
@@ -1184,7 +1373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
@@ -1201,7 +1390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
@@ -1218,7 +1407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>30</v>
       </c>
@@ -1235,7 +1424,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
@@ -1252,7 +1441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
@@ -1269,7 +1458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
@@ -1286,7 +1475,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
@@ -1303,7 +1492,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
@@ -1320,7 +1509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
@@ -1337,7 +1526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
@@ -1354,7 +1543,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>38</v>
       </c>
@@ -1371,7 +1560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
@@ -1388,7 +1577,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>40</v>
       </c>
@@ -1405,7 +1594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>41</v>
       </c>
@@ -1422,7 +1611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>42</v>
       </c>
@@ -1439,7 +1628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>43</v>
       </c>
@@ -1456,7 +1645,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>44</v>
       </c>
@@ -1473,7 +1662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>45</v>
       </c>
@@ -1490,7 +1679,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>46</v>
       </c>
@@ -1507,7 +1696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>47</v>
       </c>
@@ -1524,7 +1713,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>48</v>
       </c>
@@ -1541,7 +1730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>49</v>
       </c>
@@ -1558,7 +1747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>50</v>
       </c>
@@ -1575,7 +1764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>51</v>
       </c>
@@ -1592,7 +1781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>52</v>
       </c>
@@ -1609,7 +1798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>53</v>
       </c>
@@ -1626,7 +1815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>54</v>
       </c>
@@ -1643,7 +1832,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>55</v>
       </c>
@@ -1660,7 +1849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>56</v>
       </c>
@@ -1677,7 +1866,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>57</v>
       </c>
@@ -1694,7 +1883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>58</v>
       </c>
@@ -1711,7 +1900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>59</v>
       </c>
@@ -1728,7 +1917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>60</v>
       </c>
@@ -1745,7 +1934,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>61</v>
       </c>
@@ -1762,7 +1951,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>62</v>
       </c>
@@ -1779,7 +1968,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>63</v>
       </c>
@@ -1796,7 +1985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>64</v>
       </c>
@@ -1813,7 +2002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>65</v>
       </c>
@@ -1830,7 +2019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>66</v>
       </c>
@@ -1847,7 +2036,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>67</v>
       </c>
@@ -1864,7 +2053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>68</v>
       </c>
@@ -1881,7 +2070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>69</v>
       </c>
@@ -1898,7 +2087,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>70</v>
       </c>
@@ -1915,7 +2104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>71</v>
       </c>
@@ -1932,7 +2121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>72</v>
       </c>
@@ -1949,7 +2138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>73</v>
       </c>
@@ -1966,7 +2155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>74</v>
       </c>
@@ -1983,7 +2172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>75</v>
       </c>
@@ -2000,7 +2189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>76</v>
       </c>
@@ -2017,7 +2206,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>77</v>
       </c>
@@ -2034,7 +2223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>78</v>
       </c>
@@ -2051,7 +2240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>79</v>
       </c>
@@ -2068,7 +2257,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>80</v>
       </c>
@@ -2085,7 +2274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>81</v>
       </c>
@@ -2102,7 +2291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>82</v>
       </c>
@@ -2119,7 +2308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>83</v>
       </c>
@@ -2136,7 +2325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>84</v>
       </c>
@@ -2153,7 +2342,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>85</v>
       </c>
@@ -2170,7 +2359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>86</v>
       </c>
@@ -2187,7 +2376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>87</v>
       </c>
@@ -2204,7 +2393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>88</v>
       </c>
@@ -2221,7 +2410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>89</v>
       </c>
@@ -2238,7 +2427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>90</v>
       </c>
@@ -2255,7 +2444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>91</v>
       </c>
@@ -2272,7 +2461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>92</v>
       </c>
@@ -2289,7 +2478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>93</v>
       </c>
@@ -2306,7 +2495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>94</v>
       </c>
@@ -2323,7 +2512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>95</v>
       </c>
@@ -2340,7 +2529,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>96</v>
       </c>
@@ -2357,7 +2546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>97</v>
       </c>
@@ -2374,7 +2563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>98</v>
       </c>
@@ -2391,7 +2580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>99</v>
       </c>
@@ -2408,7 +2597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>100</v>
       </c>
@@ -2425,7 +2614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>101</v>
       </c>
@@ -2442,7 +2631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>102</v>
       </c>
@@ -2459,7 +2648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>103</v>
       </c>

--- a/StatsAssignment#3/2011Movies.xlsx
+++ b/StatsAssignment#3/2011Movies.xlsx
@@ -8,13 +8,45 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trevorcardoza/Documents/GitHub/Statistics/StatsAssignment#3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977842D3-7964-E74B-B910-9B6B8B180A3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46296331-EEEA-104C-8AE7-815FCFE86317}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="0" windowWidth="18920" windowHeight="18220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Data!$A$2:$A$101</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Data!$C$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Data!$A$2:$A$101</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Data!$C$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Data!$C$2:$C$101</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Data!$C$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Data!$C$2:$C$101</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Data!$A$2:$A$101</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Data!$C$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Data!$C$2:$C$101</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Data!$A$2:$A$101</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Data!$C$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Data!$C$2:$C$101</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Data!$C$2:$C$101</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Data!$A$2:$A$101</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Data!$C$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Data!$C$2:$C$101</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Data!$A$2:$A$101</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Data!$C$1</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Data!$C$2:$C$101</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Data!$A$2:$A$101</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Data!$C$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Data!$C$2:$C$101</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Data!$A$2:$A$101</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Data!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Data!$C$2:$C$101</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Data!$C$2:$C$101</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Data!$A$2:$A$101</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Data!$C$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Data!$C$2:$C$101</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="115">
   <si>
     <t>Motion Picture</t>
   </si>
@@ -372,6 +404,9 @@
   </si>
   <si>
     <t>max</t>
+  </si>
+  <si>
+    <t>Sample Coor Coefficient of Total Gross Sales</t>
   </si>
 </sst>
 </file>
@@ -407,12 +442,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -427,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -446,6 +487,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="40" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,6 +504,731 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.17</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Total Gross Sales ($millions)</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Total Gross Sales ($millions)</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{0F8075B1-B96B-D148-970D-72BCF42BEF6C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:v>Total Gross Sales ($millions)</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>399436</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>327742</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>81935</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86AC27E1-D70C-7C4F-A670-2D513EBA1DF1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8470081" y="2411361"/>
+              <a:ext cx="11481209" cy="5331542"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -784,10 +1552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -801,9 +1569,11 @@
     <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" customWidth="1"/>
     <col min="11" max="11" width="13.1640625" customWidth="1"/>
+    <col min="13" max="13" width="16.1640625" customWidth="1"/>
+    <col min="14" max="14" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -831,8 +1601,11 @@
       <c r="K1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="N1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -851,24 +1624,31 @@
       <c r="G2" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="8">
         <f>AVERAGE(B2:B101)</f>
         <v>27.514899999999979</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="8">
         <f>AVERAGE(C2:C101)</f>
         <v>90.466399999999993</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="8">
         <f t="shared" ref="I2:K2" si="0">AVERAGE(D2:D101)</f>
         <v>3114.35</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="8">
         <f t="shared" si="0"/>
         <v>14.58</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="M2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N2">
+        <f>CORREL(B2:B101,C2:C101)</f>
+        <v>0.88744844337119588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -903,8 +1683,15 @@
         <f t="shared" si="1"/>
         <v>5.0496124463750549</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <f>CORREL(D2:D101,C2:C101)</f>
+        <v>0.64074132513505644</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -939,8 +1726,15 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="M4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <f>CORREL(E2:E101,C2:C101)</f>
+        <v>0.33342010759918245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -976,7 +1770,7 @@
         <v>11.75</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -995,24 +1789,24 @@
       <c r="G6" t="s">
         <v>111</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="9">
         <f>_xlfn.QUARTILE.INC(B2:B101,2)</f>
         <v>19.079999999999998</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="9">
         <f t="shared" ref="I6:K6" si="4">_xlfn.QUARTILE.INC(C2:C101,2)</f>
         <v>72.400000000000006</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="9">
         <f t="shared" si="4"/>
         <v>3102.5</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="9">
         <f t="shared" si="4"/>
         <v>14.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1048,7 +1842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1084,7 +1878,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1101,7 +1895,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1118,7 +1912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1135,7 +1929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1152,7 +1946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
@@ -1169,7 +1963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -1186,7 +1980,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -1203,7 +1997,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -2667,5 +3461,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>